--- a/biology/Mycologie/Plicaturopsidoïde/Plicaturopsidoïde.xlsx
+++ b/biology/Mycologie/Plicaturopsidoïde/Plicaturopsidoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plicaturopsido%C3%AFde</t>
+          <t>Plicaturopsidoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le clade plicaturopsidoïde est une nouvelle division phylogénétique des Agaricales proposée en 2006 et y constituant le premier des six clades des Agaricales. Il englobe principalement les clavaires et ses apparentés morphologiques du genre Clavulinopsis. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plicaturopsido%C3%AFde</t>
+          <t>Plicaturopsidoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation du clade</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Clade des Athéloïdes
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plicaturopsido%C3%AFde</t>
+          <t>Plicaturopsidoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Phylogénie du clade I Plicaturopsidoïde</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Clade I Plicaturopsidoïde
